--- a/data/Max_vel_decreased_sample.xlsx
+++ b/data/Max_vel_decreased_sample.xlsx
@@ -460,104 +460,104 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9732824427480929</v>
+        <v>0.9923664122137379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9732824427480929</v>
+        <v>0.9923664122137379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9732824427480929</v>
+        <v>0.9923664122137379</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9923664122137379</v>
+        <v>1.032504780114673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9923664122137379</v>
+        <v>1.032504780114673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9923664122137379</v>
+        <v>1.032504780114673</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9942638623326518</v>
+        <v>0.9732824427480929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.975143403441633</v>
+        <v>0.9732824427480929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9847036328871424</v>
+        <v>0.9732824427480929</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.032504780114673</v>
+        <v>1.085714285714333</v>
       </c>
       <c r="C5" t="n">
-        <v>1.032504780114673</v>
+        <v>1.085714285714333</v>
       </c>
       <c r="D5" t="n">
-        <v>1.032504780114673</v>
+        <v>1.085714285714333</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.085714285714333</v>
+        <v>1.240458015267178</v>
       </c>
       <c r="C6" t="n">
-        <v>1.085714285714333</v>
+        <v>1.087786259541983</v>
       </c>
       <c r="D6" t="n">
-        <v>1.085714285714333</v>
+        <v>1.16412213740458</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.123809523809329</v>
+        <v>0.9942638623326518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4007633587787138</v>
+        <v>0.975143403441633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8159796437659554</v>
+        <v>0.9847036328871424</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -579,36 +579,36 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.240458015267178</v>
+        <v>1.123809523809329</v>
       </c>
       <c r="C9" t="n">
-        <v>1.087786259541983</v>
+        <v>0.4007633587787138</v>
       </c>
       <c r="D9" t="n">
-        <v>1.16412213740458</v>
+        <v>0.8159796437659554</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.228571428571039</v>
+        <v>3.10476190476271</v>
       </c>
       <c r="C10" t="n">
-        <v>1.049618320610914</v>
+        <v>0.4389312977100155</v>
       </c>
       <c r="D10" t="n">
-        <v>1.514070341514107</v>
+        <v>1.453671392221111</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -630,155 +630,155 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.10476190476271</v>
+        <v>3.43511450381604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4389312977100155</v>
+        <v>1.087786259542219</v>
       </c>
       <c r="D12" t="n">
-        <v>1.453671392221111</v>
+        <v>1.773582333696596</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.314285714285141</v>
+        <v>2.228571428571039</v>
       </c>
       <c r="C13" t="n">
-        <v>1.104761904761713</v>
+        <v>1.049618320610914</v>
       </c>
       <c r="D13" t="n">
-        <v>1.925612729636051</v>
+        <v>1.514070341514107</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.358778625954921</v>
+        <v>3.923809523810545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6857142857141693</v>
+        <v>0.495238095238009</v>
       </c>
       <c r="D14" t="n">
-        <v>1.856839936992873</v>
+        <v>2.204283290924771</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.43511450381604</v>
+        <v>3.950381679388453</v>
       </c>
       <c r="C15" t="n">
-        <v>1.087786259542219</v>
+        <v>1.259541984732549</v>
       </c>
       <c r="D15" t="n">
-        <v>1.773582333696596</v>
+        <v>2.34853043414558</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.923809523810545</v>
+        <v>4.446564885495211</v>
       </c>
       <c r="C16" t="n">
-        <v>0.495238095238009</v>
+        <v>0.477099236641117</v>
       </c>
       <c r="D16" t="n">
-        <v>2.204283290924771</v>
+        <v>2.329947050018086</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.950381679388453</v>
+        <v>3.358778625954921</v>
       </c>
       <c r="C17" t="n">
-        <v>1.259541984732549</v>
+        <v>0.6857142857141693</v>
       </c>
       <c r="D17" t="n">
-        <v>2.34853043414558</v>
+        <v>1.856839936992873</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.314285714285141</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.104761904761713</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.925612729636051</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.171428571427848</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7633587786254566</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.422521663974036</v>
-      </c>
-      <c r="E18" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.171428571427848</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7633587786254566</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.422521663974036</v>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.37022900763453</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.114285714285692</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.533130809575863</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.446564885495211</v>
+        <v>4.37022900763453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.477099236641117</v>
+        <v>0.114285714285692</v>
       </c>
       <c r="D20" t="n">
-        <v>2.329947050018086</v>
+        <v>2.533130809575863</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -800,36 +800,36 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.423664122139003</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.877862595419276</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.223612192969141</v>
+      </c>
+      <c r="E22" t="n">
         <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7.347328244270013</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.514285714287457</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.306714760711954</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.423664122139003</v>
+        <v>7.347328244270013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.877862595419276</v>
+        <v>2.514285714287457</v>
       </c>
       <c r="D23" t="n">
-        <v>4.223612192969141</v>
+        <v>5.306714760711954</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1079,19 +1079,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9751434034416364</v>
+        <v>1.068702290076335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809936</v>
+        <v>1.068702290076335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.963762177911315</v>
+        <v>1.068702290076335</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1147,172 +1147,172 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.068702290076335</v>
+        <v>0.9751434034416364</v>
       </c>
       <c r="C6" t="n">
-        <v>1.068702290076335</v>
+        <v>0.9523809523809936</v>
       </c>
       <c r="D6" t="n">
-        <v>1.068702290076335</v>
+        <v>0.963762177911315</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.108986615678965</v>
+        <v>1.453154875716949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9732824427483007</v>
+        <v>0.9732824427480895</v>
       </c>
       <c r="D7" t="n">
-        <v>1.055429261599958</v>
+        <v>1.138971169647091</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.14503816793868</v>
+        <v>1.108986615678965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9541984732826481</v>
+        <v>0.9732824427483007</v>
       </c>
       <c r="D8" t="n">
-        <v>1.069231386744095</v>
+        <v>1.055429261599958</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.431297709923351</v>
+        <v>1.14503816793868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9923664122139533</v>
+        <v>0.9541984732826481</v>
       </c>
       <c r="D9" t="n">
-        <v>1.114503816793921</v>
+        <v>1.069231386744095</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.453154875716949</v>
+        <v>1.431297709923351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9732824427480895</v>
+        <v>0.9923664122139533</v>
       </c>
       <c r="D10" t="n">
-        <v>1.138971169647091</v>
+        <v>1.114503816793921</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.564885496182864</v>
+        <v>2.228571428572008</v>
       </c>
       <c r="C11" t="n">
-        <v>1.011450381679167</v>
+        <v>1.047619047618866</v>
       </c>
       <c r="D11" t="n">
-        <v>1.163770750030203</v>
+        <v>1.577635405307293</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.564885496182864</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.011450381679167</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.163770750030203</v>
+      </c>
+      <c r="E12" t="n">
         <v>12</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.980952380952038</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7428571428570119</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.255787505842021</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.385496183205585</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9714285714288234</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.373047478068878</v>
+      </c>
+      <c r="E13" t="n">
         <v>13</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.228571428572008</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1908396946564478</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.315612504543923</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.228571428572008</v>
+        <v>1.980952380952038</v>
       </c>
       <c r="C14" t="n">
-        <v>1.047619047618866</v>
+        <v>0.7428571428570119</v>
       </c>
       <c r="D14" t="n">
-        <v>1.577635405307293</v>
+        <v>1.255787505842021</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.385496183205585</v>
+        <v>2.228571428572008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9714285714288234</v>
+        <v>0.1908396946564478</v>
       </c>
       <c r="D15" t="n">
-        <v>1.373047478068878</v>
+        <v>1.315612504543923</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1334,70 +1334,70 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.179389312978001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3625954198474053</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.970597704730638</v>
+      </c>
+      <c r="E17" t="n">
         <v>17</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.026717557252775</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9732824427483007</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.294216630721295</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.580152671752737</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9714285714284028</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.346601235913794</v>
+      </c>
+      <c r="E18" t="n">
         <v>18</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.12213740458104</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.049618320610913</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.523368125876175</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.179389312978001</v>
+        <v>4.026717557252775</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3625954198474053</v>
+        <v>0.9732824427483007</v>
       </c>
       <c r="D19" t="n">
-        <v>1.970597704730638</v>
+        <v>2.294216630721295</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.580152671752737</v>
+        <v>4.12213740458104</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9714285714284028</v>
+        <v>1.049618320610913</v>
       </c>
       <c r="D20" t="n">
-        <v>2.346601235913794</v>
+        <v>2.523368125876175</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1419,36 +1419,36 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.02290076336029</v>
+        <v>8.399999999998546</v>
       </c>
       <c r="C22" t="n">
-        <v>1.183206106869455</v>
+        <v>1.504761904761644</v>
       </c>
       <c r="D22" t="n">
-        <v>4.2009762683701</v>
+        <v>3.961312769382579</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.399999999998546</v>
+        <v>7.02290076336029</v>
       </c>
       <c r="C23" t="n">
-        <v>1.504761904761644</v>
+        <v>1.183206106869455</v>
       </c>
       <c r="D23" t="n">
-        <v>3.961312769382579</v>
+        <v>4.2009762683701</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1521,36 +1521,36 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.48473282443275</v>
+        <v>24.80916030534885</v>
       </c>
       <c r="C28" t="n">
-        <v>2.938931297710555</v>
+        <v>3.47328244274884</v>
       </c>
       <c r="D28" t="n">
-        <v>12.37639221015054</v>
+        <v>10.89579373734296</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24.80916030534885</v>
+        <v>24.48473282443275</v>
       </c>
       <c r="C29" t="n">
-        <v>3.47328244274884</v>
+        <v>2.938931297710555</v>
       </c>
       <c r="D29" t="n">
-        <v>10.89579373734296</v>
+        <v>12.37639221015054</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1572,36 +1572,36 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.2977099236437</v>
+        <v>31.44486692016166</v>
       </c>
       <c r="C31" t="n">
-        <v>3.854961832058554</v>
+        <v>2.690839694657068</v>
       </c>
       <c r="D31" t="n">
-        <v>16.12567654525025</v>
+        <v>15.38515495130747</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.44486692016166</v>
+        <v>31.2977099236437</v>
       </c>
       <c r="C32" t="n">
-        <v>2.690839694657068</v>
+        <v>3.854961832058554</v>
       </c>
       <c r="D32" t="n">
-        <v>15.38515495130747</v>
+        <v>16.12567654525025</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -1762,12 +1762,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_x_max</t>
+          <t>Velocity_x_min</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_x_min</t>
+          <t>Velocity_x_max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1783,614 +1783,614 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.599236641226356</v>
+        <v>-0.9923664122137379</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.42965779468881</v>
+        <v>-0.9923664122137379</v>
       </c>
       <c r="D2" t="n">
-        <v>-21.44235283757501</v>
+        <v>-0.9923664122137379</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.095238095237383</v>
+        <v>-0.1908396946564875</v>
       </c>
       <c r="C3" t="n">
-        <v>-32.59047619047055</v>
+        <v>-0.1908396946564875</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.63223423174815</v>
+        <v>-0.1908396946564875</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.076190476189771</v>
+        <v>-1.087786259541983</v>
       </c>
       <c r="C4" t="n">
-        <v>-35.31428571431019</v>
+        <v>-0.01912045889101208</v>
       </c>
       <c r="D4" t="n">
-        <v>-18.95564988367144</v>
+        <v>-0.5534533592164977</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.893129770989824</v>
+        <v>-1.030534351145038</v>
       </c>
       <c r="C5" t="n">
-        <v>-29.50381679389947</v>
+        <v>-0.9732824427480895</v>
       </c>
       <c r="D5" t="n">
-        <v>-15.18322944537788</v>
+        <v>-1.001908396946564</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.809523809526449</v>
+        <v>-1.108986615678724</v>
       </c>
       <c r="C6" t="n">
-        <v>-37.69083969463189</v>
+        <v>-0.9923664122137379</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.39806999222531</v>
+        <v>-1.050676513946231</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.676190476186655</v>
+        <v>-1.12595419847328</v>
       </c>
       <c r="C7" t="n">
-        <v>-43.47328244271972</v>
+        <v>-0.9751434034418484</v>
       </c>
       <c r="D7" t="n">
-        <v>-24.69787222699652</v>
+        <v>-1.055921422860537</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.612167300381325</v>
+        <v>-1.104761904761953</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.26615969582366</v>
+        <v>-0.9714285714286131</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.08401503695081</v>
+        <v>-1.05465891191085</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.447619047615462</v>
+        <v>-0.9885931558934088</v>
       </c>
       <c r="C9" t="n">
-        <v>-40.22857142852962</v>
+        <v>-0.9541984732822341</v>
       </c>
       <c r="D9" t="n">
-        <v>-22.42342524796149</v>
+        <v>-0.9714067335346831</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.358778625952003</v>
+        <v>-1.161904761905063</v>
       </c>
       <c r="C10" t="n">
-        <v>-23.54285714285306</v>
+        <v>-0.9732824427478818</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.43232464378602</v>
+        <v>-1.073633830122503</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.180952380951827</v>
+        <v>-1.068702290076103</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.28244274808292</v>
+        <v>-0.9523809523807873</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.330689190893418</v>
+        <v>-1.028978553253356</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.971428571428061</v>
+        <v>-1.371428571428335</v>
       </c>
       <c r="C12" t="n">
-        <v>-24.87619047618617</v>
+        <v>-1.009523809523633</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.87963341956002</v>
+        <v>-1.184843423684159</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.666666666666202</v>
+        <v>-2.442748091602518</v>
       </c>
       <c r="C13" t="n">
-        <v>-16.30476190475907</v>
+        <v>-1.087786259542219</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.447320069873113</v>
+        <v>-1.476074154852685</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.514285714285279</v>
+        <v>-3.091603053435782</v>
       </c>
       <c r="C14" t="n">
-        <v>-17.93893129769823</v>
+        <v>-0.9732824427478783</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.767949317130165</v>
+        <v>-1.49869138495111</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.171428571428196</v>
+        <v>-2.190476190476757</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.721374045795836</v>
+        <v>-1.164122137404324</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.95342646622388</v>
+        <v>-1.54602108047829</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.847619047618725</v>
+        <v>-2.076190476191015</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.572519083970668</v>
+        <v>-0.9923664122135226</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.557598333211966</v>
+        <v>-1.453892091187678</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.164122137404324</v>
+        <v>-2.347328244275315</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.190476190476757</v>
+        <v>-0.7428571428576587</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.54602108047829</v>
+        <v>-1.764769672417814</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.14503816793918</v>
+        <v>-2.832699619772722</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.009523809527279</v>
+        <v>-1.030534351145258</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.820332974568206</v>
+        <v>-1.894291898397808</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.087786259542219</v>
+        <v>-3.142857142859318</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.442748091602518</v>
+        <v>-1.049618320610003</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.476074154852685</v>
+        <v>-2.066563933790799</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.085714285715039</v>
+        <v>-3.517110266160762</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.828571428570071</v>
+        <v>-0.9714285714284061</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.229355559017224</v>
+        <v>-2.520588375251009</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.049618320610003</v>
+        <v>-5.009523809527279</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.142857142859318</v>
+        <v>-1.14503816793918</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.066563933790799</v>
+        <v>-2.820332974568206</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.030534351145258</v>
+        <v>-5.572519083970668</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.832699619772722</v>
+        <v>-1.847619047618725</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.894291898397808</v>
+        <v>-3.557598333211966</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.009523809523633</v>
+        <v>-7.828571428570071</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.371428571428335</v>
+        <v>-1.085714285715039</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.184843423684159</v>
+        <v>-4.229355559017224</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-8.721374045795836</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.108986615678724</v>
+        <v>-2.171428571428196</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.050676513946231</v>
+        <v>-4.95342646622388</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-13.28244274808292</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-3.180952380951827</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-6.330689190893418</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9923664122135226</v>
+        <v>-16.30476190475907</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.076190476191015</v>
+        <v>-2.666666666666202</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.453892091187678</v>
+        <v>-7.447320069873113</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9751434034418484</v>
+        <v>-17.93893129769823</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.12595419847328</v>
+        <v>-2.514285714285279</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.055921422860537</v>
+        <v>-8.767949317130165</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-20.26615969582366</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.030534351145038</v>
+        <v>-3.612167300381325</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.001908396946564</v>
+        <v>-10.08401503695081</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.9732824427478818</v>
+        <v>-23.54285714285306</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.161904761905063</v>
+        <v>-3.358778625952003</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.073633830122503</v>
+        <v>-11.43232464378602</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9732824427478783</v>
+        <v>-24.87619047618617</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.091603053435782</v>
+        <v>-2.971428571428061</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.49869138495111</v>
+        <v>-12.87963341956002</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9714285714286131</v>
+        <v>-29.50381679389947</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.104761904761953</v>
+        <v>-3.893129770989824</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.05465891191085</v>
+        <v>-15.18322944537788</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9714285714284061</v>
+        <v>-32.59047619047055</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.517110266160762</v>
+        <v>-4.095238095237383</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.520588375251009</v>
+        <v>-17.63223423174815</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9541984732822341</v>
+        <v>-35.31428571431019</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.9885931558934088</v>
+        <v>-4.076190476189771</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.9714067335346831</v>
+        <v>-18.95564988367144</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-37.69083969463189</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.068702290076103</v>
+        <v>-3.809523809526449</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.028978553253356</v>
+        <v>-20.39806999222531</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.7428571428576587</v>
+        <v>-39.42965779468881</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.347328244275315</v>
+        <v>-4.599236641226356</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.764769672417814</v>
+        <v>-21.44235283757501</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-40.22857142852962</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-3.447619047615462</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-22.42342524796149</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01912045889101208</v>
+        <v>-43.47328244271972</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.087786259541983</v>
+        <v>-3.676190476186655</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5534533592164977</v>
+        <v>-24.69787222699652</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2415,12 +2415,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_y_max</t>
+          <t>Velocity_y_min</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_y_min</t>
+          <t>Velocity_y_max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -2436,223 +2436,223 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.338403041827327</v>
+        <v>-0.9541984732824411</v>
       </c>
       <c r="C2" t="n">
-        <v>-40.15267175573382</v>
+        <v>-0.9541984732824411</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.71694172342953</v>
+        <v>-0.9541984732824411</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.980952380951339</v>
+        <v>-1.032504780114897</v>
       </c>
       <c r="C3" t="n">
-        <v>-33.58095238094657</v>
+        <v>-1.032504780114897</v>
       </c>
       <c r="D3" t="n">
-        <v>-18.4261715111858</v>
+        <v>-1.032504780114897</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.267175572520213</v>
+        <v>-1.087786259541983</v>
       </c>
       <c r="C4" t="n">
-        <v>-36.20952380951753</v>
+        <v>-1.030534351145038</v>
       </c>
       <c r="D4" t="n">
-        <v>-20.25097588334518</v>
+        <v>-1.059160305343511</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.1999999999991</v>
+        <v>-1.108986615678724</v>
       </c>
       <c r="C5" t="n">
-        <v>-30.0572519084034</v>
+        <v>-1.051625239005685</v>
       </c>
       <c r="D5" t="n">
-        <v>-16.1707196296802</v>
+        <v>-1.075759507117041</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.81904761905096</v>
+        <v>-1.085714285714568</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.34732824427962</v>
+        <v>-0.9541984732826481</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.04145505530478</v>
+        <v>-0.995398037077404</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.408396946565832</v>
+        <v>-1.085714285714095</v>
       </c>
       <c r="C7" t="n">
-        <v>-15.06666666667711</v>
+        <v>-0.9541984732826481</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.137669083248818</v>
+        <v>-1.014460196292312</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.220532319392917</v>
+        <v>-1.221374045801261</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.84732824427908</v>
+        <v>-0.9714285714284028</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.07856802257175</v>
+        <v>-1.0987715263352</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.664122137405365</v>
+        <v>-1.39047619047595</v>
       </c>
       <c r="C9" t="n">
-        <v>-25.7523809523765</v>
+        <v>-0.9714285714288269</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.81665368437468</v>
+        <v>-1.162306847680284</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.580952380951766</v>
+        <v>-2.38549618320662</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.95801526717836</v>
+        <v>-0.9732824427482972</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.75563685201803</v>
+        <v>-1.274098816666579</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.748091603054029</v>
+        <v>-2.319391634981692</v>
       </c>
       <c r="C11" t="n">
-        <v>-10.53435114504044</v>
+        <v>-1.028571428571694</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.709694208278373</v>
+        <v>-1.7063502462489</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.262357414449353</v>
+        <v>-2.309160305344003</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.741444866921905</v>
+        <v>-1.009523809523637</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.896757546661075</v>
+        <v>-1.870018368709408</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.243346007605245</v>
+        <v>-2.538167938931841</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.505703422054605</v>
+        <v>-1.028571428571249</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.218997506412862</v>
+        <v>-1.95987433141195</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.015267175573165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.080152671754367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.390582279990843</v>
+      </c>
+      <c r="E14" t="n">
         <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-2.118320610685639</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-6.43129770992505</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-4.472904524767956</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2660,10 +2660,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>-4.742857142856319</v>
+      </c>
+      <c r="C15" t="n">
         <v>-2.080152671756172</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-4.742857142856319</v>
       </c>
       <c r="D15" t="n">
         <v>-2.805982556143186</v>
@@ -2674,223 +2674,223 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.080152671754367</v>
+        <v>-4.505703422054605</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.015267175573165</v>
+        <v>-2.243346007605245</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.390582279990843</v>
+        <v>-3.218997506412862</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.051625239005685</v>
+        <v>-5.741444866921905</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.108986615678724</v>
+        <v>-2.262357414449353</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.075759507117041</v>
+        <v>-3.896757546661075</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.032504780114897</v>
+        <v>-6.43129770992505</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.032504780114897</v>
+        <v>-2.118320610685639</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.032504780114897</v>
+        <v>-4.472904524767956</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.030534351145038</v>
+        <v>-10.53435114504044</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.087786259541983</v>
+        <v>-2.748091603054029</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.059160305343511</v>
+        <v>-5.709694208278373</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.028571428571694</v>
+        <v>-12.95801526717836</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.319391634981692</v>
+        <v>-3.580952380951766</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.7063502462489</v>
+        <v>-6.75563685201803</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.028571428571249</v>
+        <v>-15.06666666667711</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.538167938931841</v>
+        <v>-4.408396946565832</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.95987433141195</v>
+        <v>-8.137669083248818</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.009523809523637</v>
+        <v>-19.84732824427908</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.309160305344003</v>
+        <v>-4.220532319392917</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.870018368709408</v>
+        <v>-10.07856802257175</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9732824427482972</v>
+        <v>-22.34732824427962</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.38549618320662</v>
+        <v>-4.81904761905096</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.274098816666579</v>
+        <v>-12.04145505530478</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9714285714288269</v>
+        <v>-25.7523809523765</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.39047619047595</v>
+        <v>-3.664122137405365</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.162306847680284</v>
+        <v>-13.81665368437468</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-30.0572519084034</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.221374045801261</v>
+        <v>-5.1999999999991</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.0987715263352</v>
+        <v>-16.1707196296802</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9541984732826481</v>
+        <v>-33.58095238094657</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.085714285714095</v>
+        <v>-5.980952380951339</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.014460196292312</v>
+        <v>-18.4261715111858</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9541984732826481</v>
+        <v>-36.20952380951753</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.085714285714568</v>
+        <v>-5.267175572520213</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.995398037077404</v>
+        <v>-20.25097588334518</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-40.15267175573382</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-7.338403041827327</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-22.71694172342953</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/Max_vel_decreased_sample.xlsx
+++ b/data/Max_vel_decreased_sample.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,121 +460,121 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9923664122137379</v>
+        <v>4.095238095238272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9923664122137379</v>
+        <v>1.908396946564882</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9923664122137379</v>
+        <v>3.275908940001884</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1.032504780114673</v>
+        <v>4.209523809523992</v>
       </c>
       <c r="C3" t="n">
-        <v>1.032504780114673</v>
+        <v>3.938814531548573</v>
       </c>
       <c r="D3" t="n">
-        <v>1.032504780114673</v>
+        <v>4.071074612418588</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9732824427480929</v>
+        <v>4.618320610687022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9732824427480929</v>
+        <v>0.7265774378585088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9732824427480929</v>
+        <v>2.501836634410014</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1.085714285714333</v>
+        <v>4.942748091603044</v>
       </c>
       <c r="C5" t="n">
-        <v>1.085714285714333</v>
+        <v>1.147227533460811</v>
       </c>
       <c r="D5" t="n">
-        <v>1.085714285714333</v>
+        <v>2.912531557560958</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.240458015267178</v>
+        <v>5.428571428572838</v>
       </c>
       <c r="C6" t="n">
-        <v>1.087786259541983</v>
+        <v>4.465648854960855</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16412213740458</v>
+        <v>5.085605234459949</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9942638623326518</v>
+        <v>5.744274809160295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.975143403441633</v>
+        <v>3.409523809523957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9847036328871424</v>
+        <v>4.37695135600495</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.183206106870226</v>
+        <v>6.049618320611989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2095238095237721</v>
+        <v>4.323809523808775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6918490095379918</v>
+        <v>4.901829637707369</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -582,33 +582,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.123809523809329</v>
+        <v>6.978967495219559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4007633587787138</v>
+        <v>0.1338432122370874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8159796437659554</v>
+        <v>4.202997971187836</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3.10476190476271</v>
+        <v>7.552581261949932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4389312977100155</v>
+        <v>2.057142857142946</v>
       </c>
       <c r="D10" t="n">
-        <v>1.453671392221111</v>
+        <v>4.804862059546439</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -616,186 +616,186 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.595419847327676</v>
+        <v>7.576335877864227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9333333333335763</v>
+        <v>1.488549618320285</v>
       </c>
       <c r="D11" t="n">
-        <v>1.41875681570332</v>
+        <v>5.174009451109682</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>3.43511450381604</v>
+        <v>9.066666666665096</v>
       </c>
       <c r="C12" t="n">
-        <v>1.087786259542219</v>
+        <v>3.95038167938845</v>
       </c>
       <c r="D12" t="n">
-        <v>1.773582333696596</v>
+        <v>6.266497031382131</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2.228571428571039</v>
+        <v>9.198473282442732</v>
       </c>
       <c r="C13" t="n">
-        <v>1.049618320610914</v>
+        <v>3.747609942638447</v>
       </c>
       <c r="D13" t="n">
-        <v>1.514070341514107</v>
+        <v>5.574903059759882</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.923809523810545</v>
+        <v>9.427480916032565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.495238095238009</v>
+        <v>3.580952380951761</v>
       </c>
       <c r="D14" t="n">
-        <v>2.204283290924771</v>
+        <v>7.446831455229542</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>3.950381679388453</v>
+        <v>9.86666666666923</v>
       </c>
       <c r="C15" t="n">
-        <v>1.259541984732549</v>
+        <v>2.137404580152204</v>
       </c>
       <c r="D15" t="n">
-        <v>2.34853043414558</v>
+        <v>6.374130619169996</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>4.446564885495211</v>
+        <v>10.49523809524082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.477099236641117</v>
+        <v>3.148854961832738</v>
       </c>
       <c r="D16" t="n">
-        <v>2.329947050018086</v>
+        <v>6.297394886708616</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.358778625954921</v>
+        <v>11.7938931297633</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6857142857141693</v>
+        <v>7.161904761903521</v>
       </c>
       <c r="D17" t="n">
-        <v>1.856839936992873</v>
+        <v>9.182091360716321</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3.314285714285141</v>
+        <v>12.69083969465922</v>
       </c>
       <c r="C18" t="n">
-        <v>1.104761904761713</v>
+        <v>3.377862595420575</v>
       </c>
       <c r="D18" t="n">
-        <v>1.925612729636051</v>
+        <v>8.486392826851452</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>4.171428571427848</v>
+        <v>13.94285714285473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7633587786254566</v>
+        <v>5.171755725189708</v>
       </c>
       <c r="D19" t="n">
-        <v>2.422521663974036</v>
+        <v>8.200109051253383</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4.37022900763453</v>
+        <v>18.47328244275207</v>
       </c>
       <c r="C20" t="n">
-        <v>0.114285714285692</v>
+        <v>4.914285714284863</v>
       </c>
       <c r="D20" t="n">
-        <v>2.533130809575863</v>
+        <v>10.5185023627788</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>5.114503816790555</v>
+        <v>18.77862595420251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4007633587787138</v>
+        <v>5.1526717557263</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166490107493289</v>
+        <v>10.19932145886477</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -803,16 +803,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.423664122139003</v>
+        <v>23.28244274809662</v>
       </c>
       <c r="C22" t="n">
-        <v>0.877862595419276</v>
+        <v>5.066666666665788</v>
       </c>
       <c r="D22" t="n">
-        <v>4.223612192969141</v>
+        <v>13.57820186599039</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -820,16 +820,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.347328244270013</v>
+        <v>26.6095238095192</v>
       </c>
       <c r="C23" t="n">
-        <v>2.514285714287457</v>
+        <v>9.026717557246018</v>
       </c>
       <c r="D23" t="n">
-        <v>5.306714760711954</v>
+        <v>15.53014661335001</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -837,16 +837,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.03053435114741</v>
+        <v>30.09541984733472</v>
       </c>
       <c r="C24" t="n">
-        <v>2.9467680608374</v>
+        <v>6.342857142861537</v>
       </c>
       <c r="D24" t="n">
-        <v>6.226398656871361</v>
+        <v>16.05830607052088</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -854,16 +854,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.33206106870538</v>
+        <v>32.90076335875716</v>
       </c>
       <c r="C25" t="n">
-        <v>2.133333333332962</v>
+        <v>7.938931297711632</v>
       </c>
       <c r="D25" t="n">
-        <v>7.148288933893718</v>
+        <v>17.32188295164816</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -871,16 +871,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18.20610687023293</v>
+        <v>35.75238095240572</v>
       </c>
       <c r="C26" t="n">
-        <v>3.276190476189909</v>
+        <v>8.473282442749916</v>
       </c>
       <c r="D26" t="n">
-        <v>8.732751726644638</v>
+        <v>18.94672240398043</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -888,16 +888,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.80228136882853</v>
+        <v>43.71428571427814</v>
       </c>
       <c r="C27" t="n">
-        <v>3.009523809523288</v>
+        <v>6.469465648856355</v>
       </c>
       <c r="D27" t="n">
-        <v>11.07810541858145</v>
+        <v>21.93784078516809</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -905,16 +905,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.12547528517997</v>
+        <v>44.12213740458965</v>
       </c>
       <c r="C28" t="n">
-        <v>3.015267175570552</v>
+        <v>7.142857142855905</v>
       </c>
       <c r="D28" t="n">
-        <v>12.23549267848282</v>
+        <v>22.59723736823367</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -922,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32.62857142859404</v>
+        <v>49.44761904761048</v>
       </c>
       <c r="C29" t="n">
-        <v>3.301526717555097</v>
+        <v>9.771428571426878</v>
       </c>
       <c r="D29" t="n">
-        <v>14.45609388793985</v>
+        <v>25.98650187810286</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -939,16 +939,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.54198473283186</v>
+        <v>53.32061068698811</v>
       </c>
       <c r="C30" t="n">
-        <v>3.282442748092309</v>
+        <v>11.31428571428375</v>
       </c>
       <c r="D30" t="n">
-        <v>16.95965946707213</v>
+        <v>27.39102144673565</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -956,16 +956,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.24761904761208</v>
+        <v>62.20952380951302</v>
       </c>
       <c r="C31" t="n">
-        <v>7.061068702291595</v>
+        <v>9.561068702283837</v>
       </c>
       <c r="D31" t="n">
-        <v>20.01038064080566</v>
+        <v>30.67908639282586</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -973,16 +973,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.69523809523051</v>
+        <v>68.01904761903583</v>
       </c>
       <c r="C32" t="n">
-        <v>6.457142857141738</v>
+        <v>7.561904761903452</v>
       </c>
       <c r="D32" t="n">
-        <v>21.46609544581141</v>
+        <v>33.39339634072198</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -990,16 +990,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48.72137404581201</v>
+        <v>73.74045801521905</v>
       </c>
       <c r="C33" t="n">
-        <v>6.590476190475049</v>
+        <v>8.492366412208199</v>
       </c>
       <c r="D33" t="n">
-        <v>22.98073947136171</v>
+        <v>35.59506845994174</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1007,16 +1007,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50.49618320607392</v>
+        <v>80.57142857148442</v>
       </c>
       <c r="C34" t="n">
-        <v>6.01904761905179</v>
+        <v>9.676190476197181</v>
       </c>
       <c r="D34" t="n">
-        <v>25.6406034169411</v>
+        <v>40.41332848662504</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1024,16 +1024,67 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54.42748091599502</v>
+        <v>86.11428571434539</v>
       </c>
       <c r="C35" t="n">
-        <v>4.160305343508735</v>
+        <v>12.53816793894488</v>
       </c>
       <c r="D35" t="n">
-        <v>27.58951117671001</v>
+        <v>42.61113534473744</v>
       </c>
       <c r="E35" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>94.38931297703763</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.34351145037493</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45.87150127225372</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>99.06666666673533</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.68571428572308</v>
+      </c>
+      <c r="D37" t="n">
+        <v>48.20499212409476</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>104.5333333334058</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.20952380953366</v>
+      </c>
+      <c r="D38" t="n">
+        <v>52.53260632499171</v>
+      </c>
+      <c r="E38" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,53 +1130,53 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.068702290076335</v>
+        <v>3.001912045889122</v>
       </c>
       <c r="C2" t="n">
-        <v>1.068702290076335</v>
+        <v>0.7074569789675007</v>
       </c>
       <c r="D2" t="n">
-        <v>1.068702290076335</v>
+        <v>2.088873644417855</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9942638623326485</v>
+        <v>3.288718929254147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942638623326485</v>
+        <v>1.259541984732822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9942638623326485</v>
+        <v>2.344640189939621</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.032504780114676</v>
+        <v>3.549618320610687</v>
       </c>
       <c r="C4" t="n">
-        <v>1.013384321223881</v>
+        <v>0.2490421455938694</v>
       </c>
       <c r="D4" t="n">
-        <v>1.022944550669278</v>
+        <v>1.521647997036257</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1133,67 +1184,67 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.051625239005917</v>
+        <v>3.652007648183385</v>
       </c>
       <c r="C5" t="n">
-        <v>1.051625239005917</v>
+        <v>1.564885496183204</v>
       </c>
       <c r="D5" t="n">
-        <v>1.051625239005917</v>
+        <v>2.400541989598022</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9751434034416364</v>
+        <v>3.740458015267169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9523809523809936</v>
+        <v>2.925430210324911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.963762177911315</v>
+        <v>3.297026355095577</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1.453154875716949</v>
+        <v>3.881453154875537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9732824427480895</v>
+        <v>1.625239005736416</v>
       </c>
       <c r="D7" t="n">
-        <v>1.138971169647091</v>
+        <v>2.764317234198893</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1.108986615678965</v>
+        <v>4.038095238094539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9732824427483007</v>
+        <v>2.595419847327679</v>
       </c>
       <c r="D8" t="n">
-        <v>1.055429261599958</v>
+        <v>3.511362899729871</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1201,84 +1252,84 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.14503816793868</v>
+        <v>4.397705544933827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9541984732826481</v>
+        <v>0.7633587786259536</v>
       </c>
       <c r="D9" t="n">
-        <v>1.069231386744095</v>
+        <v>2.655469278336719</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>1.431297709923351</v>
+        <v>4.474187380496922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9923664122139533</v>
+        <v>1.77480916030534</v>
       </c>
       <c r="D10" t="n">
-        <v>1.114503816793921</v>
+        <v>3.113533198079124</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2.228571428572008</v>
+        <v>5.648854961832053</v>
       </c>
       <c r="C11" t="n">
-        <v>1.047619047618866</v>
+        <v>2.380952380951968</v>
       </c>
       <c r="D11" t="n">
-        <v>1.577635405307293</v>
+        <v>4.295467967034083</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.564885496182864</v>
+        <v>6.240458015265812</v>
       </c>
       <c r="C12" t="n">
-        <v>1.011450381679167</v>
+        <v>0.229007633587834</v>
       </c>
       <c r="D12" t="n">
-        <v>1.163770750030203</v>
+        <v>2.943790136919674</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>2.385496183205585</v>
+        <v>6.870229007635068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9714285714288234</v>
+        <v>1.25714285714264</v>
       </c>
       <c r="D13" t="n">
-        <v>1.373047478068878</v>
+        <v>4.315242501771301</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1286,16 +1337,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.980952380952038</v>
+        <v>7.12380952380829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7428571428570119</v>
+        <v>3.721374045802328</v>
       </c>
       <c r="D14" t="n">
-        <v>1.255787505842021</v>
+        <v>4.944577729310119</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1303,84 +1354,84 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.228571428572008</v>
+        <v>8.492366412215569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1908396946564478</v>
+        <v>2.982791586998597</v>
       </c>
       <c r="D15" t="n">
-        <v>1.315612504543923</v>
+        <v>5.389938162587586</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.454198473283185</v>
+        <v>10.0000000000026</v>
       </c>
       <c r="C16" t="n">
-        <v>1.011450381679606</v>
+        <v>2.767175572519678</v>
       </c>
       <c r="D16" t="n">
-        <v>2.067677208287761</v>
+        <v>6.157760814250012</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>4.179389312978001</v>
+        <v>10.05714285714547</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3625954198474053</v>
+        <v>2.996183206106215</v>
       </c>
       <c r="D17" t="n">
-        <v>1.970597704730638</v>
+        <v>5.725154489277576</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.580152671752737</v>
+        <v>10.28625954198695</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9714285714284028</v>
+        <v>4.847328244275854</v>
       </c>
       <c r="D18" t="n">
-        <v>2.346601235913794</v>
+        <v>8.276275293833072</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>4.026717557252775</v>
+        <v>10.9541984732848</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9732824427483007</v>
+        <v>3.352380952380373</v>
       </c>
       <c r="D19" t="n">
-        <v>2.294216630721295</v>
+        <v>6.556391615171218</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1388,16 +1439,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.12213740458104</v>
+        <v>16.56488549618677</v>
       </c>
       <c r="C20" t="n">
-        <v>1.049618320610913</v>
+        <v>6.457142857147331</v>
       </c>
       <c r="D20" t="n">
-        <v>2.523368125876175</v>
+        <v>9.849581970193917</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1405,16 +1456,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.133587786260647</v>
+        <v>18.1333333333459</v>
       </c>
       <c r="C21" t="n">
-        <v>1.066666666666482</v>
+        <v>4.217557251909303</v>
       </c>
       <c r="D21" t="n">
-        <v>3.169974554707921</v>
+        <v>9.574978795592587</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -1422,16 +1473,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.399999999998546</v>
+        <v>19.3129770992408</v>
       </c>
       <c r="C22" t="n">
-        <v>1.504761904761644</v>
+        <v>3.961904761904075</v>
       </c>
       <c r="D22" t="n">
-        <v>3.961312769382579</v>
+        <v>10.65269598933899</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1439,16 +1490,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.02290076336029</v>
+        <v>22.30476190475804</v>
       </c>
       <c r="C23" t="n">
-        <v>1.183206106869455</v>
+        <v>5.55343511450501</v>
       </c>
       <c r="D23" t="n">
-        <v>4.2009762683701</v>
+        <v>12.30133284866085</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1456,16 +1507,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.912213740459933</v>
+        <v>22.99618320611182</v>
       </c>
       <c r="C24" t="n">
-        <v>2.114285714285347</v>
+        <v>6.240458015268519</v>
       </c>
       <c r="D24" t="n">
-        <v>5.148070831385682</v>
+        <v>12.87570580395163</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1473,16 +1524,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0095238095219</v>
+        <v>29.00763358776733</v>
       </c>
       <c r="C25" t="n">
-        <v>1.049618320610002</v>
+        <v>5.019083969462375</v>
       </c>
       <c r="D25" t="n">
-        <v>5.895440618995723</v>
+        <v>14.30096934447544</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1490,16 +1541,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.76335877862935</v>
+        <v>31.14503816791861</v>
       </c>
       <c r="C26" t="n">
-        <v>2.557251908397497</v>
+        <v>7.67175572519249</v>
       </c>
       <c r="D26" t="n">
-        <v>7.596141662772651</v>
+        <v>17.02147098024267</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1507,16 +1558,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.82061068702738</v>
+        <v>35.88571428570807</v>
       </c>
       <c r="C27" t="n">
-        <v>2.614503816792185</v>
+        <v>6.507633587787661</v>
       </c>
       <c r="D27" t="n">
-        <v>8.957111699641512</v>
+        <v>19.00095722767233</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1524,16 +1575,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.80916030534885</v>
+        <v>39.54198473283294</v>
       </c>
       <c r="C28" t="n">
-        <v>3.47328244274884</v>
+        <v>6.990476190474977</v>
       </c>
       <c r="D28" t="n">
-        <v>10.89579373734296</v>
+        <v>20.28817399733776</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1541,16 +1592,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24.48473282443275</v>
+        <v>40.43809523808823</v>
       </c>
       <c r="C29" t="n">
-        <v>2.938931297710555</v>
+        <v>8.473282442749914</v>
       </c>
       <c r="D29" t="n">
-        <v>12.37639221015054</v>
+        <v>21.89744335392921</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1558,16 +1609,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.52380952380475</v>
+        <v>47.00952380951566</v>
       </c>
       <c r="C30" t="n">
-        <v>3.199999999999445</v>
+        <v>7.561904761903453</v>
       </c>
       <c r="D30" t="n">
-        <v>13.71666926312543</v>
+        <v>23.82024718284066</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -1575,16 +1626,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.44486692016166</v>
+        <v>51.75572519080592</v>
       </c>
       <c r="C31" t="n">
-        <v>2.690839694657068</v>
+        <v>8.75954198473471</v>
       </c>
       <c r="D31" t="n">
-        <v>15.38515495130747</v>
+        <v>25.57733240452279</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1592,16 +1643,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.2977099236437</v>
+        <v>55.28517110267842</v>
       </c>
       <c r="C32" t="n">
-        <v>3.854961832058554</v>
+        <v>6.69847328244419</v>
       </c>
       <c r="D32" t="n">
-        <v>16.12567654525025</v>
+        <v>27.46146924796264</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -1609,16 +1660,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.1102661597071</v>
+        <v>56.87619047622989</v>
       </c>
       <c r="C33" t="n">
-        <v>3.90476190476461</v>
+        <v>7.919847328239107</v>
       </c>
       <c r="D33" t="n">
-        <v>19.30826931533582</v>
+        <v>28.88121895069476</v>
       </c>
       <c r="E33" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1626,16 +1677,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.15238095233923</v>
+        <v>61.46666666670925</v>
       </c>
       <c r="C34" t="n">
-        <v>3.085714285716424</v>
+        <v>10.36259541984956</v>
       </c>
       <c r="D34" t="n">
-        <v>20.89933530663818</v>
+        <v>31.34626196535959</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1643,16 +1694,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.49618320608045</v>
+        <v>65.91603053430812</v>
       </c>
       <c r="C35" t="n">
-        <v>3.721374045799098</v>
+        <v>9.009523809530053</v>
       </c>
       <c r="D35" t="n">
-        <v>22.0988160149607</v>
+        <v>33.56297104081577</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -1660,16 +1711,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.54285714281395</v>
+        <v>71.2761904761164</v>
       </c>
       <c r="C36" t="n">
-        <v>5.648854961828374</v>
+        <v>8.87619047618125</v>
       </c>
       <c r="D36" t="n">
-        <v>23.19955860206193</v>
+        <v>36.38031019021656</v>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1677,16 +1728,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48.339694656457</v>
+        <v>75.33333333325504</v>
       </c>
       <c r="C37" t="n">
-        <v>5.771428571432571</v>
+        <v>8.571428571419663</v>
       </c>
       <c r="D37" t="n">
-        <v>25.50618136785342</v>
+        <v>38.90972979520876</v>
       </c>
       <c r="E37" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1694,16 +1745,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48.93333333328248</v>
+        <v>79.82857142862674</v>
       </c>
       <c r="C38" t="n">
-        <v>3.988549618318007</v>
+        <v>9.580152671749472</v>
       </c>
       <c r="D38" t="n">
-        <v>27.44017475448772</v>
+        <v>41.36143220647919</v>
       </c>
       <c r="E38" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
@@ -1711,16 +1762,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50.40076335883322</v>
+        <v>82.72380952386685</v>
       </c>
       <c r="C39" t="n">
-        <v>5.904761904755769</v>
+        <v>11.10687022900039</v>
       </c>
       <c r="D39" t="n">
-        <v>29.17604533120693</v>
+        <v>43.50335635527347</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -1728,16 +1779,84 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.14285714289397</v>
+        <v>89.657142857205</v>
       </c>
       <c r="C40" t="n">
-        <v>6.908396946560376</v>
+        <v>10.85877862596596</v>
       </c>
       <c r="D40" t="n">
-        <v>30.85128524692035</v>
+        <v>47.19419604993166</v>
       </c>
       <c r="E40" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>94.70476190466347</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.484732824421291</v>
+      </c>
+      <c r="D41" t="n">
+        <v>49.48810129647935</v>
+      </c>
+      <c r="E41" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>98.30798479073445</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.923664122130928</v>
+      </c>
+      <c r="D42" t="n">
+        <v>52.20317050277921</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>103.0988593156207</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.64122137405841</v>
+      </c>
+      <c r="D43" t="n">
+        <v>55.70216430112848</v>
+      </c>
+      <c r="E43" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>105.6488549619465</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.90476190477015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>58.81558221255685</v>
+      </c>
+      <c r="E44" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,189 +1902,189 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-3.034351145038162</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-1.19999999999992</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-2.35292620865137</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-3.244274809160304</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-2.447418738049709</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1908396946564875</v>
+        <v>-2.732157887310923</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.087786259541983</v>
+        <v>-3.54961832061068</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01912045889101208</v>
+        <v>-3.085714285714418</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5534533592164977</v>
+        <v>-3.305925118138898</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.030534351145038</v>
+        <v>-3.733333333333291</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-1.564885496183204</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.001908396946564</v>
+        <v>-2.618490245971146</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.108986615678724</v>
+        <v>-3.778625954198464</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9923664122137379</v>
+        <v>-2.390057361376561</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.050676513946231</v>
+        <v>-2.964164279794888</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.12595419847328</v>
+        <v>-4.057142857143031</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9751434034418484</v>
+        <v>-2.480916030534345</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.055921422860537</v>
+        <v>-3.057215557978971</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.104761904761953</v>
+        <v>-4.23664122137404</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9714285714286131</v>
+        <v>-2.057142857142501</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.05465891191085</v>
+        <v>-3.166630316248514</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9885931558934088</v>
+        <v>-4.780952380952588</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9541984732822341</v>
+        <v>-3.301526717557247</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9714067335346831</v>
+        <v>-4.151700890884588</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.161904761905063</v>
+        <v>-5.019083969466728</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9732824427478818</v>
+        <v>-3.733333333332688</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.073633830122503</v>
+        <v>-4.355131467345662</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.068702290076103</v>
+        <v>-5.028571428571648</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-2.614503816793887</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.028978553253356</v>
+        <v>-3.819956379498433</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.371428571428335</v>
+        <v>-6.552380952379816</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.009523809523633</v>
+        <v>-3.27619047618991</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.184843423684159</v>
+        <v>-5.041269841269732</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1973,33 +2092,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.442748091602518</v>
+        <v>-6.736641221375498</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.087786259542219</v>
+        <v>-4.163498098858785</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.476074154852685</v>
+        <v>-5.134652038042794</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.091603053435782</v>
+        <v>-6.952380952379749</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9732824427478783</v>
+        <v>-3.759541984733635</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.49869138495111</v>
+        <v>-4.872228280624872</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -2007,16 +2126,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.190476190476757</v>
+        <v>-8.282442748093382</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.164122137404324</v>
+        <v>-3.8095238095248</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.54602108047829</v>
+        <v>-5.376687265237575</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2024,16 +2143,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.076190476191015</v>
+        <v>-9.161904761903175</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9923664122135226</v>
+        <v>-4.999999999998905</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.453892091187678</v>
+        <v>-6.663492063491675</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2041,16 +2160,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.347328244275315</v>
+        <v>-10.79999999999812</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7428571428576587</v>
+        <v>-4.952380952380097</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.764769672417814</v>
+        <v>-6.939682539682067</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2058,16 +2177,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.832699619772722</v>
+        <v>-13.69523809524165</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.030534351145258</v>
+        <v>-4.84790874524653</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.894291898397808</v>
+        <v>-7.860438259806126</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2075,16 +2194,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.142857142859318</v>
+        <v>-13.73333333333096</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.049618320610003</v>
+        <v>-4.923954372625072</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.066563933790799</v>
+        <v>-8.32469386636056</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2211,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.517110266160762</v>
+        <v>-15.5999999999973</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9714285714284061</v>
+        <v>-5.142857142856254</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.520588375251009</v>
+        <v>-9.153471464921131</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2109,16 +2228,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.009523809527279</v>
+        <v>-18.68320610687426</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.14503816793918</v>
+        <v>-5.820610687024152</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.820332974568206</v>
+        <v>-10.56337619365554</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -2126,16 +2245,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.572519083970668</v>
+        <v>-18.84030418251524</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.847619047618725</v>
+        <v>-5.847619047618035</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.557598333211966</v>
+        <v>-11.14279374846492</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -2143,16 +2262,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.828571428570071</v>
+        <v>-22.91984732824921</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.085714285715039</v>
+        <v>-5.295238095241763</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.229355559017224</v>
+        <v>-12.76375863322657</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2160,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.721374045795836</v>
+        <v>-25.49618320611236</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.171428571428196</v>
+        <v>-5.418250950571994</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.95342646622388</v>
+        <v>-13.66989075064023</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -2177,16 +2296,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-13.28244274808292</v>
+        <v>-29.84732824425533</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.180952380951827</v>
+        <v>-6.393129770988193</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.330689190893418</v>
+        <v>-15.80713679873455</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -2194,16 +2313,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-16.30476190475907</v>
+        <v>-32.91428571428002</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.666666666666202</v>
+        <v>-5.752380952379959</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.447320069873113</v>
+        <v>-16.76190476190186</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2211,16 +2330,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-17.93893129769823</v>
+        <v>-37.29523809526393</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.514285714285279</v>
+        <v>-8.209523809522391</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.767949317130165</v>
+        <v>-19.09206349207095</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -2228,16 +2347,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-20.26615969582366</v>
+        <v>-39.98095238094545</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.612167300381325</v>
+        <v>-8.876190476188935</v>
       </c>
       <c r="D28" t="n">
-        <v>-10.08401503695081</v>
+        <v>-20.88495092693383</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -2245,16 +2364,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-23.54285714285306</v>
+        <v>-45.23809523808741</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.358778625952003</v>
+        <v>-8.396946564887305</v>
       </c>
       <c r="D29" t="n">
-        <v>-11.43232464378602</v>
+        <v>-22.50691869622887</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -2262,16 +2381,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-24.87619047618617</v>
+        <v>-49.80916030535423</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.971428571428061</v>
+        <v>-7.028571428576298</v>
       </c>
       <c r="D30" t="n">
-        <v>-12.87963341956002</v>
+        <v>-24.50781533988065</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -2279,16 +2398,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-29.50381679389947</v>
+        <v>-51.27862595420951</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.893129770989824</v>
+        <v>-9.14122137404777</v>
       </c>
       <c r="D31" t="n">
-        <v>-15.18322944537788</v>
+        <v>-25.74197699281266</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -2296,16 +2415,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-32.59047619047055</v>
+        <v>-54.68571428570482</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.095238095237383</v>
+        <v>-7.504761904760607</v>
       </c>
       <c r="D32" t="n">
-        <v>-17.63223423174815</v>
+        <v>-26.66666666666719</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -2313,16 +2432,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-35.31428571431019</v>
+        <v>-58.53612167297101</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.076190476189771</v>
+        <v>-9.257142857141252</v>
       </c>
       <c r="D33" t="n">
-        <v>-18.95564988367144</v>
+        <v>-29.06085916907189</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -2330,50 +2449,50 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-37.69083969463189</v>
+        <v>-64.01904761903654</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.809523809526449</v>
+        <v>-10.81904761904575</v>
       </c>
       <c r="D34" t="n">
-        <v>-20.39806999222531</v>
+        <v>-32.45079365078804</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.42965779468881</v>
+        <v>-67.06666666659694</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.599236641226356</v>
+        <v>-10.49618320610002</v>
       </c>
       <c r="D35" t="n">
-        <v>-21.44235283757501</v>
+        <v>-35.18761662423879</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
-        <v>-40.22857142852962</v>
+        <v>-68.93333333338111</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.447619047615462</v>
+        <v>-10.99047619048381</v>
       </c>
       <c r="D36" t="n">
-        <v>-22.42342524796149</v>
+        <v>-34.33847085909499</v>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
@@ -2381,16 +2500,84 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-43.47328244271972</v>
+        <v>-76.57142857148163</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.676190476186655</v>
+        <v>-9.276190476196899</v>
       </c>
       <c r="D37" t="n">
-        <v>-24.69787222699652</v>
+        <v>-38.50793650794605</v>
       </c>
       <c r="E37" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-77.19465648849925</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-11.67619047617834</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-40.72627725185408</v>
+      </c>
+      <c r="E38" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-80.7224334601006</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.05714285714982</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-42.16189439581871</v>
+      </c>
+      <c r="E39" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-86.43129770986725</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.30476190474912</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-45.10884526837264</v>
+      </c>
+      <c r="E40" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-88.32699619774552</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-10.91428571429328</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-46.66185224039084</v>
+      </c>
+      <c r="E41" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2436,104 +2623,104 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-3.606870229007628</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-3.219047619047583</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9541984732824411</v>
+        <v>-3.443559917605756</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.032504780114897</v>
+        <v>-4.130019120458893</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.032504780114897</v>
+        <v>-2.409177820267684</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.032504780114897</v>
+        <v>-3.297192631035843</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.087786259541983</v>
+        <v>-4.723809523809729</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.030534351145038</v>
+        <v>-3.683206106870222</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.059160305343511</v>
+        <v>-4.201829637707564</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.108986615678724</v>
+        <v>-5.019083969465645</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.051625239005685</v>
+        <v>-4.323809523809707</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.075759507117041</v>
+        <v>-4.774603174603232</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.085714285714568</v>
+        <v>-5.047619047619267</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9541984732826481</v>
+        <v>-2.843511450381671</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.995398037077404</v>
+        <v>-4.046249848539904</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.085714285714095</v>
+        <v>-5.152671755725184</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9541984732826481</v>
+        <v>-3.961904761904933</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.014460196292312</v>
+        <v>-4.363877322320238</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2541,16 +2728,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.221374045801261</v>
+        <v>-5.706106870229002</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-4.332061068702282</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.0987715263352</v>
+        <v>-5.180976614564475</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -2558,16 +2745,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.39047619047595</v>
+        <v>-6.183206106870219</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9714285714288269</v>
+        <v>-4.351145038167934</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.162306847680284</v>
+        <v>-5.232085302314007</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -2575,16 +2762,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.38549618320662</v>
+        <v>-7.828571428570071</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9732824427482972</v>
+        <v>-4.675572519084975</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.274098816666579</v>
+        <v>-6.202268514870814</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2592,16 +2779,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.319391634981692</v>
+        <v>-8.339694656490346</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.028571428571694</v>
+        <v>-5.428571428572838</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.7063502462489</v>
+        <v>-6.957675996607954</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2609,16 +2796,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.309160305344003</v>
+        <v>-10.13358778626172</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.009523809523637</v>
+        <v>-5.381679389311801</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.870018368709408</v>
+        <v>-7.013025566461494</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2626,16 +2813,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.538167938931841</v>
+        <v>-10.9923664122161</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.028571428571249</v>
+        <v>-6.476190476189355</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.95987433141195</v>
+        <v>-8.279995153277584</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2643,16 +2830,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.015267175573165</v>
+        <v>-12.19465648855224</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.080152671754367</v>
+        <v>-6.076190476189419</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.390582279990843</v>
+        <v>-8.420441051738882</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2660,16 +2847,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.742857142856319</v>
+        <v>-12.82442748091323</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.080152671756172</v>
+        <v>-6.704761904760742</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.805982556143186</v>
+        <v>-9.290682176177761</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2677,16 +2864,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.505703422054605</v>
+        <v>-14.01904761904519</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.243346007605245</v>
+        <v>-6.190476190475118</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.218997506412862</v>
+        <v>-9.999866715133424</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2694,16 +2881,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.741444866921905</v>
+        <v>-16.90839694656853</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.262357414449353</v>
+        <v>-5.969581749048667</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.896757546661075</v>
+        <v>-11.00385549395818</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2711,16 +2898,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.43129770992505</v>
+        <v>-21.79047619049129</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.118320610685639</v>
+        <v>-7.77142857143396</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.472904524767956</v>
+        <v>-13.42267054404909</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2728,16 +2915,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-10.53435114504044</v>
+        <v>-25.20000000001746</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.748091603054029</v>
+        <v>-6.908396946566374</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.709694208278373</v>
+        <v>-14.8043862837812</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2745,16 +2932,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-12.95801526717836</v>
+        <v>-26.7238095238049</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.580952380951766</v>
+        <v>-8.18702290076512</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.75563685201803</v>
+        <v>-16.08138858596701</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2762,16 +2949,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-15.06666666667711</v>
+        <v>-31.27862595420521</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.408396946565832</v>
+        <v>-8.057142857141462</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.137669083248818</v>
+        <v>-17.65390766994096</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -2779,16 +2966,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-19.84732824427908</v>
+        <v>-36.95238095237455</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.220532319392917</v>
+        <v>-9.428571428569795</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.07856802257175</v>
+        <v>-20.33309099721151</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -2796,16 +2983,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-22.34732824427962</v>
+        <v>-40.70610687023778</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.81904761905096</v>
+        <v>-9.46564885496387</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.04145505530478</v>
+        <v>-22.04711249141404</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2813,16 +3000,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-25.7523809523765</v>
+        <v>-43.43511450382614</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.664122137405365</v>
+        <v>-9.180952380958743</v>
       </c>
       <c r="D24" t="n">
-        <v>-13.81665368437468</v>
+        <v>-23.60218102508597</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -2830,16 +3017,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-30.0572519084034</v>
+        <v>-47.96190476189646</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.1999999999991</v>
+        <v>-9.31428571429217</v>
       </c>
       <c r="D25" t="n">
-        <v>-16.1707196296802</v>
+        <v>-25.47883193989585</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -2847,16 +3034,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-33.58095238094657</v>
+        <v>-51.45038167940039</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.980952380951339</v>
+        <v>-11.04761904761713</v>
       </c>
       <c r="D26" t="n">
-        <v>-18.4261715111858</v>
+        <v>-27.98187325821095</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2864,16 +3051,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-36.20952380951753</v>
+        <v>-55.96190476194353</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.267175572520213</v>
+        <v>-11.33587786259785</v>
       </c>
       <c r="D27" t="n">
-        <v>-20.25097588334518</v>
+        <v>-29.96275293833789</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -2881,16 +3068,67 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-40.15267175573382</v>
+        <v>-62.34732824423412</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.338403041827327</v>
+        <v>-10.43893129770311</v>
       </c>
       <c r="D28" t="n">
-        <v>-22.71694172342953</v>
+        <v>-32.85256270446121</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-65.64885496184617</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.48854961832308</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-34.73021217311366</v>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-76.48854961833709</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-11.63498098858664</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-39.89613870103791</v>
+      </c>
+      <c r="E30" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-81.62213740459772</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.14828897337723</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-42.88530752039619</v>
+      </c>
+      <c r="E31" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
